--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-03-11</t>
+    <t xml:space="preserve">11/03/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.612</t>
   </si>
   <si>
     <t xml:space="preserve">natural_soil</t>
@@ -90,6 +96,12 @@
     <t xml:space="preserve">MFD00805</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5813</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00806</t>
   </si>
   <si>
@@ -102,22 +114,49 @@
     <t xml:space="preserve">MFD00819</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.585</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00820</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5857</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00821</t>
   </si>
   <si>
+    <t xml:space="preserve">9.5871</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00822</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00823</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5708</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00852</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-21</t>
+    <t xml:space="preserve">21/10/2020 06:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9489</t>
   </si>
   <si>
     <t xml:space="preserve">4010</t>
@@ -135,7 +174,13 @@
     <t xml:space="preserve">MFD00916</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-20</t>
+    <t xml:space="preserve">20/10/2020 08:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9764</t>
   </si>
   <si>
     <t xml:space="preserve">4030</t>
@@ -147,7 +192,13 @@
     <t xml:space="preserve">MFD01367</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-07-27</t>
+    <t xml:space="preserve">27/07/2021 08:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1548</t>
   </si>
   <si>
     <t xml:space="preserve">7200</t>
@@ -162,9 +213,27 @@
     <t xml:space="preserve">MFD01947</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 04:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9658</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02170</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 07:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9498</t>
+  </si>
+  <si>
     <t xml:space="preserve">9100</t>
   </si>
   <si>
@@ -177,7 +246,13 @@
     <t xml:space="preserve">MFD02208</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-22</t>
+    <t xml:space="preserve">22/10/2020 07:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9891</t>
   </si>
   <si>
     <t xml:space="preserve">1330</t>
@@ -189,12 +264,36 @@
     <t xml:space="preserve">MFD02239</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 06:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.301</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02244</t>
   </si>
   <si>
+    <t xml:space="preserve">22/10/2020 07:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9798</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02246</t>
   </si>
   <si>
+    <t xml:space="preserve">22/10/2020 07:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9686</t>
+  </si>
+  <si>
     <t xml:space="preserve">2140</t>
   </si>
   <si>
@@ -210,13 +309,37 @@
     <t xml:space="preserve">MFD02248</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 06:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9751</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02253</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 04:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02344</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-08</t>
+    <t xml:space="preserve">08/07/2020 09:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2837</t>
   </si>
   <si>
     <t xml:space="preserve">ballonparken</t>
@@ -225,10 +348,25 @@
     <t xml:space="preserve">MFD02515</t>
   </si>
   <si>
+    <t xml:space="preserve">21/10/2020 04:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9492</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02835</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-18</t>
+    <t xml:space="preserve">18/07/2020 08:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7601</t>
   </si>
   <si>
     <t xml:space="preserve">1000</t>
@@ -240,28 +378,52 @@
     <t xml:space="preserve">MFD02840</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-19</t>
+    <t xml:space="preserve">19/07/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807</t>
   </si>
   <si>
     <t xml:space="preserve">1200</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sea cliffs and shingle or stony beaches</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02841</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8132</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02892</t>
   </si>
   <si>
+    <t xml:space="preserve">20/10/2020 08:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9759</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03101</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-28</t>
+    <t xml:space="preserve">28/07/2020 09:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9704</t>
   </si>
   <si>
     <t xml:space="preserve">6230</t>
@@ -279,49 +441,97 @@
     <t xml:space="preserve">MFD03102</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-30</t>
+    <t xml:space="preserve">30/07/2020 09:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03107</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-03</t>
+    <t xml:space="preserve">03/08/2020 07:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0158</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03114</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-22</t>
+    <t xml:space="preserve">22/07/2020 03:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8789</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03466</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-11</t>
+    <t xml:space="preserve">11/08/2020 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9202</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03474</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-24</t>
+    <t xml:space="preserve">24/08/2020 08:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8202</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03495</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-28</t>
+    <t xml:space="preserve">28/08/2020 07:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9151</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03496</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-17</t>
+    <t xml:space="preserve">17/08/2020 09:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9393</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03685</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-27</t>
+    <t xml:space="preserve">27/09/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9321</t>
   </si>
   <si>
     <t xml:space="preserve">9000</t>
@@ -330,15 +540,39 @@
     <t xml:space="preserve">MFD03686</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9309</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03687</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03688</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0336</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03689</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.034</t>
+  </si>
+  <si>
     <t xml:space="preserve">7230</t>
   </si>
   <si>
@@ -348,27 +582,57 @@
     <t xml:space="preserve">MFD03693</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9881</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03696</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9885</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03698</t>
   </si>
   <si>
-    <t xml:space="preserve">6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grasslands (non-habitat type)</t>
+    <t xml:space="preserve">57.2632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03699</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9678</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03700</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8769</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03701</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9099</t>
+  </si>
+  <si>
     <t xml:space="preserve">4000</t>
   </si>
   <si>
@@ -384,31 +648,100 @@
     <t xml:space="preserve">MFD03703</t>
   </si>
   <si>
+    <t xml:space="preserve">57.2965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0279</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03766</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-05</t>
+    <t xml:space="preserve">05/09/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0128</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03798</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0294</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03800</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-15</t>
+    <t xml:space="preserve">15/08/2020 12:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7483</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03834</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/08/2020 10:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/08/2020 03:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7119</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03877</t>
   </si>
   <si>
+    <t xml:space="preserve">05/09/2020 10:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0114</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03879</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-06</t>
+    <t xml:space="preserve">06/09/2020 06:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5705</t>
   </si>
   <si>
     <t xml:space="preserve">6410</t>
@@ -420,10 +753,25 @@
     <t xml:space="preserve">MFD03910</t>
   </si>
   <si>
+    <t xml:space="preserve">06/09/2020 11:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4403</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03928</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-03-12</t>
+    <t xml:space="preserve">12/03/2021 09:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55345</t>
   </si>
   <si>
     <t xml:space="preserve">9110</t>
@@ -435,25 +783,52 @@
     <t xml:space="preserve">MFD03952</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-05</t>
+    <t xml:space="preserve">05/10/2020 15:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1262</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03955</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-09-17</t>
+    <t xml:space="preserve">17/09/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2286</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03962</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0324</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10692</t>
   </si>
   <si>
+    <t xml:space="preserve">30/06/2022 09:36</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02324</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-10</t>
+    <t xml:space="preserve">10/07/2020 08:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2478</t>
   </si>
   <si>
     <t xml:space="preserve">skallingen</t>
@@ -462,7 +837,13 @@
     <t xml:space="preserve">MFD02331</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-29</t>
+    <t xml:space="preserve">29/06/2020 11:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0847</t>
   </si>
   <si>
     <t xml:space="preserve">2330</t>
@@ -480,9 +861,27 @@
     <t xml:space="preserve">MFD02343</t>
   </si>
   <si>
+    <t xml:space="preserve">10/07/2020 07:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2533</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02346</t>
   </si>
   <si>
+    <t xml:space="preserve">08/07/2020 09:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2944</t>
+  </si>
+  <si>
     <t xml:space="preserve">9160</t>
   </si>
   <si>
@@ -490,15 +889,6 @@
   </si>
   <si>
     <t xml:space="preserve">Oak-hornbeam mixed forrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03868</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -956,39 +1346,39 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>56.9676</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.612</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -996,39 +1386,39 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.9609</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.5813</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1036,39 +1426,39 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
-        <v>56.9676</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.612</v>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1076,39 +1466,39 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>56.9676</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.612</v>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1116,39 +1506,39 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
-        <v>56.9676</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.612</v>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1156,39 +1546,39 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>56.9613</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.585</v>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1196,39 +1586,39 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
-        <v>56.9614</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.5857</v>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1236,39 +1626,39 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
-        <v>56.9613</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.5871</v>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1276,39 +1666,39 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
-        <v>56.9676</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.612</v>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1316,2318 +1706,2298 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="n">
-        <v>56.9608</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.5708</v>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>57.2754</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.9489</v>
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>57.2868</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.9764</v>
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.2006</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.1548</v>
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.2807</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.9658</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="n">
-        <v>57.3012</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.9498</v>
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.2346</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10.9891</v>
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.301</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.9498</v>
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57.2897</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.9798</v>
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.9686</v>
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57.2786</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.9751</v>
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57.2771</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.9458</v>
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="n">
-        <v>55.655</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8.2837</v>
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="n">
-        <v>57.2751</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.9492</v>
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="n">
-        <v>55.2906</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.7601</v>
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="n">
-        <v>55.0595</v>
-      </c>
-      <c r="E26" t="n">
-        <v>14.7807</v>
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="n">
-        <v>55.0519</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14.8132</v>
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="n">
-        <v>57.2866</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.9759</v>
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="n">
-        <v>56.988</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.9704</v>
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.9884</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10.0051</v>
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="n">
-        <v>56.9545</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10.0158</v>
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="n">
-        <v>56.9954</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.8789</v>
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="n">
-        <v>56.9769</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.9202</v>
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="n">
-        <v>56.9877</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.8202</v>
+        <v>158</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="n">
-        <v>57.0784</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.9151</v>
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" t="n">
-        <v>56.9867</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.9393</v>
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="n">
-        <v>57.2986</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10.9321</v>
+        <v>170</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="n">
-        <v>57.2936</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10.9309</v>
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="n">
-        <v>57.2989</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11.0165</v>
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="n">
-        <v>57.2799</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11.0336</v>
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" t="s">
+        <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="n">
-        <v>57.2417</v>
-      </c>
-      <c r="E41" t="n">
-        <v>11.034</v>
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" t="n">
-        <v>57.2372</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10.9881</v>
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="n">
-        <v>57.2339</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10.9885</v>
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57.2632</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11</v>
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>113</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" t="s">
-        <v>114</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="n">
-        <v>57.2611</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10.9678</v>
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" t="s">
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="n">
-        <v>57.2526</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10.8769</v>
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" t="s">
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="n">
-        <v>57.2658</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10.9099</v>
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" t="s">
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L47" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="n">
-        <v>57.2658</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10.9099</v>
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" t="n">
-        <v>57.2965</v>
-      </c>
-      <c r="E49" t="n">
-        <v>11.0279</v>
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" t="s">
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>113</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" t="s">
-        <v>114</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="n">
-        <v>56.6023</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10.0128</v>
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" t="s">
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" t="n">
-        <v>56.6055</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10.0294</v>
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="n">
-        <v>57.1636</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.7483</v>
+        <v>221</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" t="s">
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="n">
-        <v>56.6058</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10.0261</v>
+        <v>214</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="n">
-        <v>56.5991</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10.0114</v>
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="n">
-        <v>56.9097</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.5705</v>
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>234</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="L55" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" t="n">
-        <v>56.9272</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.4403</v>
+        <v>236</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M56" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.21792</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.55345</v>
+        <v>240</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>242</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="M57" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" t="n">
-        <v>56.3135</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.1262</v>
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" t="s">
+        <v>248</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L58" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" t="n">
-        <v>57.3039</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10.2286</v>
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" t="s">
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
-      </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" t="s">
+        <v>254</v>
+      </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" t="n">
-        <v>56.6047</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10.0324</v>
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="L60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>57</v>
+      </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="n">
-        <v>55.5075</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8.2478</v>
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" t="s">
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" t="s">
-        <v>147</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H62" s="2"/>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" t="s">
-        <v>22</v>
-      </c>
-      <c r="M62" t="s">
-        <v>56</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" t="n">
-        <v>55.5567</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8.0847</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" t="s">
-        <v>151</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63" t="s">
-        <v>152</v>
-      </c>
-      <c r="M63" t="s">
-        <v>153</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" t="n">
-        <v>55.5049</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8.2533</v>
+        <v>269</v>
+      </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" t="s">
+        <v>271</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="n">
-        <v>55.665</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8.2944</v>
+        <v>274</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" t="s">
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="H65" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="L65" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="M65" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" t="n">
-        <v>56.1172</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.5988</v>
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" t="s">
+        <v>284</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" t="n">
-        <v>55.9034</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.7119</v>
+        <v>286</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
+        <v>288</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L67" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3646,10 +4016,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -3657,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -3665,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -3673,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -3681,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -3689,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
@@ -3705,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -3713,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -3721,7 +4091,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -3729,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12">
@@ -3737,7 +4107,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13">
@@ -3745,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14">
@@ -3753,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15">
@@ -3761,7 +4131,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">11/03/2020 00:00</t>
+    <t xml:space="preserve">2020-03-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.9676</t>
@@ -150,7 +150,7 @@
     <t xml:space="preserve">MFD00852</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 06:17</t>
+    <t xml:space="preserve">2020-10-21</t>
   </si>
   <si>
     <t xml:space="preserve">57.2754</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">MFD00916</t>
   </si>
   <si>
-    <t xml:space="preserve">20/10/2020 08:27</t>
+    <t xml:space="preserve">2020-10-20</t>
   </si>
   <si>
     <t xml:space="preserve">57.2868</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">MFD01367</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2021 08:43</t>
+    <t xml:space="preserve">2021-07-27</t>
   </si>
   <si>
     <t xml:space="preserve">56.2006</t>
@@ -213,9 +213,6 @@
     <t xml:space="preserve">MFD01947</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 04:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2807</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t xml:space="preserve">MFD02170</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 07:03</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.3012</t>
   </si>
   <si>
@@ -246,7 +240,7 @@
     <t xml:space="preserve">MFD02208</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2020 07:49</t>
+    <t xml:space="preserve">2020-10-22</t>
   </si>
   <si>
     <t xml:space="preserve">57.2346</t>
@@ -264,18 +258,12 @@
     <t xml:space="preserve">MFD02239</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 06:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.301</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02244</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2020 07:09</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2897</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t xml:space="preserve">MFD02246</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2020 07:17</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.3</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t xml:space="preserve">MFD02248</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 06:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2786</t>
   </si>
   <si>
@@ -321,9 +303,6 @@
     <t xml:space="preserve">MFD02253</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 04:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2771</t>
   </si>
   <si>
@@ -333,7 +312,7 @@
     <t xml:space="preserve">MFD02344</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 09:25</t>
+    <t xml:space="preserve">2020-07-08</t>
   </si>
   <si>
     <t xml:space="preserve">55.655</t>
@@ -348,9 +327,6 @@
     <t xml:space="preserve">MFD02515</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 04:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2751</t>
   </si>
   <si>
@@ -360,7 +336,7 @@
     <t xml:space="preserve">MFD02835</t>
   </si>
   <si>
-    <t xml:space="preserve">18/07/2020 08:32</t>
+    <t xml:space="preserve">2020-07-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.2906</t>
@@ -378,7 +354,7 @@
     <t xml:space="preserve">MFD02840</t>
   </si>
   <si>
-    <t xml:space="preserve">19/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.0595</t>
@@ -405,9 +381,6 @@
     <t xml:space="preserve">MFD02892</t>
   </si>
   <si>
-    <t xml:space="preserve">20/10/2020 08:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.2866</t>
   </si>
   <si>
@@ -417,7 +390,7 @@
     <t xml:space="preserve">MFD03101</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/2020 09:45</t>
+    <t xml:space="preserve">2020-07-28</t>
   </si>
   <si>
     <t xml:space="preserve">56.988</t>
@@ -441,7 +414,7 @@
     <t xml:space="preserve">MFD03102</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 09:01</t>
+    <t xml:space="preserve">2020-07-30</t>
   </si>
   <si>
     <t xml:space="preserve">56.9884</t>
@@ -453,7 +426,7 @@
     <t xml:space="preserve">MFD03107</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 07:30</t>
+    <t xml:space="preserve">2020-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.9545</t>
@@ -465,7 +438,7 @@
     <t xml:space="preserve">MFD03114</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 03:42</t>
+    <t xml:space="preserve">2020-07-22</t>
   </si>
   <si>
     <t xml:space="preserve">56.9954</t>
@@ -477,7 +450,7 @@
     <t xml:space="preserve">MFD03466</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 10:10</t>
+    <t xml:space="preserve">2020-08-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.9769</t>
@@ -489,7 +462,7 @@
     <t xml:space="preserve">MFD03474</t>
   </si>
   <si>
-    <t xml:space="preserve">24/08/2020 08:53</t>
+    <t xml:space="preserve">2020-08-24</t>
   </si>
   <si>
     <t xml:space="preserve">56.9877</t>
@@ -501,7 +474,7 @@
     <t xml:space="preserve">MFD03495</t>
   </si>
   <si>
-    <t xml:space="preserve">28/08/2020 07:23</t>
+    <t xml:space="preserve">2020-08-28</t>
   </si>
   <si>
     <t xml:space="preserve">57.0784</t>
@@ -513,7 +486,7 @@
     <t xml:space="preserve">MFD03496</t>
   </si>
   <si>
-    <t xml:space="preserve">17/08/2020 09:50</t>
+    <t xml:space="preserve">2020-08-17</t>
   </si>
   <si>
     <t xml:space="preserve">56.9867</t>
@@ -525,7 +498,7 @@
     <t xml:space="preserve">MFD03685</t>
   </si>
   <si>
-    <t xml:space="preserve">27/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-27</t>
   </si>
   <si>
     <t xml:space="preserve">57.2986</t>
@@ -657,7 +630,7 @@
     <t xml:space="preserve">MFD03766</t>
   </si>
   <si>
-    <t xml:space="preserve">05/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.6023</t>
@@ -678,7 +651,7 @@
     <t xml:space="preserve">MFD03800</t>
   </si>
   <si>
-    <t xml:space="preserve">15/08/2020 12:56</t>
+    <t xml:space="preserve">2020-08-15</t>
   </si>
   <si>
     <t xml:space="preserve">57.1636</t>
@@ -699,7 +672,7 @@
     <t xml:space="preserve">MFD03841</t>
   </si>
   <si>
-    <t xml:space="preserve">21/08/2020 10:26</t>
+    <t xml:space="preserve">2020-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">56.1172</t>
@@ -711,9 +684,6 @@
     <t xml:space="preserve">MFD03868</t>
   </si>
   <si>
-    <t xml:space="preserve">21/08/2020 03:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.9034</t>
   </si>
   <si>
@@ -723,9 +693,6 @@
     <t xml:space="preserve">MFD03877</t>
   </si>
   <si>
-    <t xml:space="preserve">05/09/2020 10:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5991</t>
   </si>
   <si>
@@ -735,7 +702,7 @@
     <t xml:space="preserve">MFD03879</t>
   </si>
   <si>
-    <t xml:space="preserve">06/09/2020 06:53</t>
+    <t xml:space="preserve">2020-09-06</t>
   </si>
   <si>
     <t xml:space="preserve">56.9097</t>
@@ -753,9 +720,6 @@
     <t xml:space="preserve">MFD03910</t>
   </si>
   <si>
-    <t xml:space="preserve">06/09/2020 11:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.9272</t>
   </si>
   <si>
@@ -765,7 +729,7 @@
     <t xml:space="preserve">MFD03928</t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2021 09:20</t>
+    <t xml:space="preserve">2021-03-12</t>
   </si>
   <si>
     <t xml:space="preserve">56.21792</t>
@@ -783,7 +747,7 @@
     <t xml:space="preserve">MFD03952</t>
   </si>
   <si>
-    <t xml:space="preserve">05/10/2020 15:20</t>
+    <t xml:space="preserve">2020-10-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.3135</t>
@@ -795,7 +759,7 @@
     <t xml:space="preserve">MFD03955</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-17</t>
   </si>
   <si>
     <t xml:space="preserve">57.3039</t>
@@ -816,13 +780,13 @@
     <t xml:space="preserve">MFD10692</t>
   </si>
   <si>
-    <t xml:space="preserve">30/06/2022 09:36</t>
+    <t xml:space="preserve">2022-06-30</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02324</t>
   </si>
   <si>
-    <t xml:space="preserve">10/07/2020 08:07</t>
+    <t xml:space="preserve">2020-07-10</t>
   </si>
   <si>
     <t xml:space="preserve">55.5075</t>
@@ -837,7 +801,7 @@
     <t xml:space="preserve">MFD02331</t>
   </si>
   <si>
-    <t xml:space="preserve">29/06/2020 11:08</t>
+    <t xml:space="preserve">2020-06-29</t>
   </si>
   <si>
     <t xml:space="preserve">55.5567</t>
@@ -861,9 +825,6 @@
     <t xml:space="preserve">MFD02343</t>
   </si>
   <si>
-    <t xml:space="preserve">10/07/2020 07:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5049</t>
   </si>
   <si>
@@ -871,9 +832,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD02346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2020 09:08</t>
   </si>
   <si>
     <t xml:space="preserve">55.665</t>
@@ -1868,13 +1826,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1904,25 +1862,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
@@ -1932,10 +1890,10 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
@@ -1944,25 +1902,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
@@ -1978,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1986,25 +1944,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
@@ -2014,10 +1972,10 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
@@ -2026,25 +1984,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
@@ -2054,10 +2012,10 @@
         <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
@@ -2066,25 +2024,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
@@ -2094,13 +2052,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
@@ -2108,19 +2066,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2150,19 +2108,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -2192,40 +2150,40 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
         <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" t="s">
-        <v>75</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
@@ -2234,19 +2192,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -2276,28 +2234,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2316,25 +2274,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
@@ -2347,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
@@ -2356,25 +2314,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2387,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
@@ -2396,19 +2354,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -2438,25 +2396,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
@@ -2466,13 +2424,13 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s">
         <v>25</v>
@@ -2480,25 +2438,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2508,13 +2466,13 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s">
         <v>25</v>
@@ -2522,25 +2480,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
@@ -2550,13 +2508,13 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N31" t="s">
         <v>25</v>
@@ -2564,25 +2522,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2592,13 +2550,13 @@
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s">
         <v>25</v>
@@ -2606,25 +2564,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2634,13 +2592,13 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N33" t="s">
         <v>25</v>
@@ -2648,25 +2606,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2676,13 +2634,13 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s">
         <v>25</v>
@@ -2690,25 +2648,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
@@ -2718,13 +2676,13 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N35" t="s">
         <v>25</v>
@@ -2732,25 +2690,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -2760,13 +2718,13 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N36" t="s">
         <v>25</v>
@@ -2774,25 +2732,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -2802,7 +2760,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2812,19 +2770,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -2852,25 +2810,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
         <v>170</v>
       </c>
-      <c r="D39" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" t="s">
-        <v>179</v>
-      </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -2880,7 +2838,7 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2890,25 +2848,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
@@ -2918,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2928,25 +2886,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -2962,7 +2920,7 @@
         <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
@@ -2970,25 +2928,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -3008,19 +2966,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3048,19 +3006,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3082,25 +3040,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -3110,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3120,25 +3078,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3158,25 +3116,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3198,25 +3156,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3226,10 +3184,10 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
@@ -3238,19 +3196,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3272,25 +3230,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
@@ -3300,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3310,25 +3268,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
@@ -3338,13 +3296,13 @@
         <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3352,25 +3310,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
@@ -3380,10 +3338,10 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
@@ -3392,25 +3350,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
@@ -3420,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3430,25 +3388,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
@@ -3458,13 +3416,13 @@
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N54" t="s">
         <v>25</v>
@@ -3472,19 +3430,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3514,25 +3472,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
@@ -3548,7 +3506,7 @@
         <v>64</v>
       </c>
       <c r="M56" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N56" t="s">
         <v>25</v>
@@ -3556,25 +3514,25 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
@@ -3584,13 +3542,13 @@
         <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M57" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="N57" t="s">
         <v>25</v>
@@ -3598,19 +3556,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3640,25 +3598,25 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
@@ -3668,13 +3626,13 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M59" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="N59" t="s">
         <v>25</v>
@@ -3682,19 +3640,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -3724,25 +3682,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
@@ -3752,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3762,25 +3720,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
@@ -3790,7 +3748,7 @@
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3800,11 +3758,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3826,28 +3784,28 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
@@ -3862,7 +3820,7 @@
         <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N64" t="s">
         <v>25</v>
@@ -3870,28 +3828,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
@@ -3900,13 +3858,13 @@
         <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M65" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N65" t="s">
         <v>25</v>
@@ -3914,28 +3872,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
@@ -3950,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N66" t="s">
         <v>25</v>
@@ -3958,28 +3916,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I67" t="s">
         <v>21</v>
@@ -3988,13 +3946,13 @@
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M67" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N67" t="s">
         <v>25</v>
@@ -4016,10 +3974,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
@@ -4035,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
@@ -4043,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
@@ -4051,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
@@ -4059,7 +4017,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -4067,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -4075,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -4083,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -4091,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -4099,7 +4057,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
@@ -4107,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -4115,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14">
@@ -4123,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
@@ -4131,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -147,19 +147,301 @@
     <t xml:space="preserve">9.5708</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010</t>
+    <t xml:space="preserve">MFD02344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ballonparken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forrests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer knude ruten nær sandvig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea cliffs and shingle or stony beaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural dry grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcareous fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
   </si>
   <si>
     <t xml:space="preserve">Heath and scrub</t>
@@ -168,19 +450,85 @@
     <t xml:space="preserve">Temperate heath</t>
   </si>
   <si>
-    <t xml:space="preserve">Wet heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9764</t>
+    <t xml:space="preserve">MFD03702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7119</t>
   </si>
   <si>
     <t xml:space="preserve">4030</t>
@@ -189,631 +537,136 @@
     <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD01367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogs, mires and fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcareous fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD01947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forrests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9891</t>
+    <t xml:space="preserve">MFD03877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molinia meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beech forests Luzulo-Fagetum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD10692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2478</t>
   </si>
   <si>
     <t xml:space="preserve">1330</t>
   </si>
   <si>
+    <t xml:space="preserve">skallingen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atlantic salt meadows</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD02239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2140</t>
+    <t xml:space="preserve">MFD02331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blåvand hug fyrtårn</t>
   </si>
   <si>
     <t xml:space="preserve">Dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decalcified Empetrum dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ballonparken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hammer knude ruten nær sandvig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea cliffs and shingle or stony beaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassland formations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural dry grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkaline fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molinia meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.21792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.55345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beech forests Luzulo-Fagetum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD10692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skallingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blåvand hug fyrtårn</t>
   </si>
   <si>
     <t xml:space="preserve">Inland dunes</t>
@@ -1716,7 +1569,9 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
@@ -1724,14 +1579,12 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
         <v>51</v>
       </c>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
         <v>25</v>
       </c>
@@ -1758,7 +1611,9 @@
       <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
@@ -1766,14 +1621,10 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>57</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
         <v>25</v>
       </c>
@@ -1808,10 +1659,10 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
@@ -1820,25 +1671,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
@@ -1848,27 +1699,25 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
@@ -1895,32 +1744,34 @@
       <c r="L16" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
       <c r="N16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
@@ -1930,13 +1781,13 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1944,19 +1795,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1977,26 +1828,28 @@
       <c r="L18" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
       <c r="N18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2017,32 +1870,34 @@
       <c r="L19" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
       <c r="N19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
@@ -2052,13 +1907,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
@@ -2066,13 +1921,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -2084,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -2094,13 +1949,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
         <v>25</v>
@@ -2114,19 +1969,19 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -2136,13 +1991,13 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
         <v>25</v>
@@ -2150,19 +2005,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -2170,9 +2025,7 @@
       <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" t="s">
-        <v>102</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" t="s">
         <v>21</v>
       </c>
@@ -2185,7 +2038,9 @@
       <c r="L23" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
       <c r="N23" t="s">
         <v>25</v>
       </c>
@@ -2198,19 +2053,19 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
@@ -2220,43 +2075,37 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" t="s">
         <v>50</v>
       </c>
-      <c r="M24" t="s">
-        <v>57</v>
-      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2115,9 @@
       <c r="K25" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
         <v>25</v>
@@ -2274,25 +2125,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
@@ -2302,11 +2153,9 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>117</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
         <v>25</v>
@@ -2314,25 +2163,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2342,11 +2191,9 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" t="s">
-        <v>117</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
         <v>25</v>
@@ -2354,25 +2201,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
@@ -2382,13 +2229,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="N28" t="s">
         <v>25</v>
@@ -2402,19 +2249,19 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>126</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
@@ -2424,39 +2271,35 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" t="s">
-        <v>131</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
       <c r="N29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2466,40 +2309,36 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" t="s">
-        <v>131</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M30" s="3"/>
       <c r="N30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
         <v>21</v>
@@ -2507,40 +2346,34 @@
       <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="K31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" t="s">
-        <v>130</v>
-      </c>
-      <c r="M31" t="s">
-        <v>131</v>
-      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2550,39 +2383,35 @@
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
-      </c>
-      <c r="L32" t="s">
-        <v>130</v>
-      </c>
-      <c r="M32" t="s">
-        <v>131</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
       <c r="N32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2592,39 +2421,35 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
-      </c>
-      <c r="L33" t="s">
-        <v>130</v>
-      </c>
-      <c r="M33" t="s">
-        <v>131</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2634,39 +2459,37 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>130</v>
-      </c>
-      <c r="M34" t="s">
-        <v>131</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M34" s="3"/>
       <c r="N34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
@@ -2676,40 +2499,36 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>130</v>
-      </c>
-      <c r="M35" t="s">
-        <v>131</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M35" s="3"/>
       <c r="N35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="G36" t="s">
-        <v>128</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
         <v>21</v>
@@ -2717,40 +2536,34 @@
       <c r="J36" t="s">
         <v>22</v>
       </c>
-      <c r="K36" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" t="s">
-        <v>130</v>
-      </c>
-      <c r="M36" t="s">
-        <v>131</v>
-      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -2760,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2770,25 +2583,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
@@ -2798,37 +2611,39 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="M38" t="s">
+        <v>74</v>
+      </c>
       <c r="N38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
         <v>161</v>
       </c>
-      <c r="D39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -2838,9 +2653,11 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
         <v>25</v>
@@ -2848,25 +2665,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
@@ -2876,7 +2693,7 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2886,25 +2703,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -2914,13 +2731,13 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
@@ -2928,25 +2745,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -2956,35 +2773,39 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="L42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
       <c r="N42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -2994,36 +2815,40 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="M43" t="s">
+        <v>123</v>
+      </c>
       <c r="N43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
         <v>21</v>
@@ -3031,34 +2856,40 @@
       <c r="J44" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="K44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" t="s">
+        <v>147</v>
+      </c>
+      <c r="M44" t="s">
+        <v>181</v>
+      </c>
       <c r="N44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -3068,35 +2899,39 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="L45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" t="s">
+        <v>173</v>
+      </c>
       <c r="N45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3106,35 +2941,39 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="L46" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" t="s">
+        <v>190</v>
+      </c>
       <c r="N46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
         <v>194</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" t="s">
-        <v>196</v>
-      </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3144,37 +2983,39 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="L47" t="s">
-        <v>50</v>
-      </c>
-      <c r="M47" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>173</v>
+      </c>
       <c r="N47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
         <v>198</v>
       </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" t="s">
-        <v>196</v>
-      </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3184,11 +3025,9 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" t="s">
-        <v>200</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
         <v>25</v>
@@ -3196,24 +3035,26 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
         <v>201</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
         <v>21</v>
@@ -3221,7 +3062,9 @@
       <c r="J49" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" t="s">
+        <v>50</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
@@ -3230,26 +3073,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>164</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
         <v>21</v>
@@ -3257,9 +3090,7 @@
       <c r="J50" t="s">
         <v>22</v>
       </c>
-      <c r="K50" t="s">
-        <v>72</v>
-      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
@@ -3268,7 +3099,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3277,32 +3108,34 @@
         <v>205</v>
       </c>
       <c r="D51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" t="s">
         <v>209</v>
       </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
         <v>210</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" t="s">
-        <v>130</v>
-      </c>
-      <c r="M51" t="s">
-        <v>131</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3328,9 +3161,11 @@
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="H52" t="s">
+        <v>216</v>
+      </c>
       <c r="I52" t="s">
         <v>21</v>
       </c>
@@ -3338,19 +3173,21 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s">
-        <v>73</v>
-      </c>
-      <c r="M52" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="M52" t="s">
+        <v>219</v>
+      </c>
       <c r="N52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -3359,18 +3196,20 @@
         <v>205</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="H53" t="s">
+        <v>209</v>
+      </c>
       <c r="I53" t="s">
         <v>21</v>
       </c>
@@ -3378,37 +3217,43 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>210</v>
+      </c>
       <c r="N53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="H54" t="s">
+        <v>227</v>
+      </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
@@ -3416,545 +3261,15 @@
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="L54" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="M54" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="N54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>222</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" t="s">
-        <v>50</v>
-      </c>
-      <c r="M55" t="s">
-        <v>57</v>
-      </c>
-      <c r="N55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>177</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" t="s">
-        <v>63</v>
-      </c>
-      <c r="L56" t="s">
-        <v>64</v>
-      </c>
-      <c r="M56" t="s">
-        <v>178</v>
-      </c>
-      <c r="N56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>229</v>
-      </c>
-      <c r="D57" t="s">
-        <v>230</v>
-      </c>
-      <c r="E57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>232</v>
-      </c>
-      <c r="H57" s="2"/>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>129</v>
-      </c>
-      <c r="L57" t="s">
-        <v>200</v>
-      </c>
-      <c r="M57" t="s">
-        <v>233</v>
-      </c>
-      <c r="N57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" t="s">
-        <v>49</v>
-      </c>
-      <c r="L58" t="s">
-        <v>50</v>
-      </c>
-      <c r="M58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" t="s">
-        <v>240</v>
-      </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>241</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" t="s">
-        <v>73</v>
-      </c>
-      <c r="M59" t="s">
-        <v>242</v>
-      </c>
-      <c r="N59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" t="s">
-        <v>49</v>
-      </c>
-      <c r="L60" t="s">
-        <v>50</v>
-      </c>
-      <c r="M60" t="s">
-        <v>57</v>
-      </c>
-      <c r="N60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>248</v>
-      </c>
-      <c r="D61" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="2"/>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" t="s">
-        <v>252</v>
-      </c>
-      <c r="E62" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s">
-        <v>260</v>
-      </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64" t="s">
-        <v>79</v>
-      </c>
-      <c r="N64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" t="s">
-        <v>263</v>
-      </c>
-      <c r="E65" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>265</v>
-      </c>
-      <c r="H65" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" t="s">
-        <v>89</v>
-      </c>
-      <c r="L65" t="s">
-        <v>267</v>
-      </c>
-      <c r="M65" t="s">
-        <v>268</v>
-      </c>
-      <c r="N65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>269</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" t="s">
-        <v>271</v>
-      </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s">
-        <v>260</v>
-      </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" t="s">
-        <v>79</v>
-      </c>
-      <c r="N66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>272</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>273</v>
-      </c>
-      <c r="E67" t="s">
-        <v>274</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>275</v>
-      </c>
-      <c r="H67" t="s">
-        <v>276</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" t="s">
-        <v>72</v>
-      </c>
-      <c r="L67" t="s">
-        <v>73</v>
-      </c>
-      <c r="M67" t="s">
-        <v>277</v>
-      </c>
-      <c r="N67" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3974,10 +3289,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -3985,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -3993,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -4001,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -4009,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
@@ -4017,7 +3332,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -4025,7 +3340,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -4033,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -4041,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -4049,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11">
@@ -4057,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -4065,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -4073,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -4081,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -4089,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">ballonparken</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrests</t>
+    <t xml:space="preserve">Forests</t>
   </si>
   <si>
     <t xml:space="preserve">Temperate forests</t>
@@ -414,6 +414,12 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grasslands (non-habitat type)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03699</t>
   </si>
   <si>
@@ -699,7 +705,7 @@
     <t xml:space="preserve">vrøgum, ballonparken</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak-hornbeam mixed forrest</t>
+    <t xml:space="preserve">Oak-hornbeam mixed forest</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -2338,7 +2344,9 @@
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
         <v>21</v>
@@ -2346,8 +2354,12 @@
       <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
         <v>25</v>
@@ -2355,7 +2367,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2364,10 +2376,10 @@
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -2393,7 +2405,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2402,10 +2414,10 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -2431,7 +2443,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2440,16 +2452,16 @@
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2459,10 +2471,10 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
@@ -2471,7 +2483,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2480,16 +2492,16 @@
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
@@ -2502,7 +2514,7 @@
         <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
@@ -2511,7 +2523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -2520,15 +2532,17 @@
         <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
         <v>21</v>
@@ -2536,8 +2550,12 @@
       <c r="J36" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="K36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>25</v>
@@ -2545,19 +2563,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -2583,19 +2601,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -2625,19 +2643,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -2665,19 +2683,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2703,19 +2721,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -2745,25 +2763,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -2773,13 +2791,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N42" t="s">
         <v>25</v>
@@ -2787,19 +2805,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -2829,25 +2847,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
@@ -2860,10 +2878,10 @@
         <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -2871,25 +2889,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -2899,13 +2917,13 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s">
         <v>25</v>
@@ -2913,25 +2931,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -2947,7 +2965,7 @@
         <v>51</v>
       </c>
       <c r="M46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N46" t="s">
         <v>25</v>
@@ -2955,25 +2973,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -2983,13 +3001,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N47" t="s">
         <v>25</v>
@@ -2997,19 +3015,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3035,19 +3053,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3073,11 +3091,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -3099,28 +3117,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3135,7 +3153,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3143,28 +3161,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3173,13 +3191,13 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N52" t="s">
         <v>25</v>
@@ -3187,28 +3205,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3223,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N53" t="s">
         <v>25</v>
@@ -3231,7 +3249,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3240,19 +3258,19 @@
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H54" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -3267,7 +3285,7 @@
         <v>51</v>
       </c>
       <c r="M54" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N54" t="s">
         <v>25</v>
@@ -3289,10 +3307,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
@@ -3300,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -3308,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -3316,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -3324,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -3332,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -3340,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -3348,7 +3366,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -3356,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -3364,7 +3382,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
@@ -3372,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -3380,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
@@ -3388,7 +3406,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
@@ -3396,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
@@ -3404,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -147,6 +147,537 @@
     <t xml:space="preserve">9.5708</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD02835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer knude ruten nær sandvig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea cliffs and shingle or stony beaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural dry grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest (non-habitattype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coniferous forest (nåleskov)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcareous fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grasslands (non-habitat type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heath and scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deciduous trees (løvtræer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molinia meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skallingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic salt meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blåvand hug fyrtårn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland dunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland dunes grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD02343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2533</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD02344</t>
   </si>
   <si>
@@ -159,537 +690,9 @@
     <t xml:space="preserve">8.2837</t>
   </si>
   <si>
-    <t xml:space="preserve">9100</t>
-  </si>
-  <si>
     <t xml:space="preserve">ballonparken</t>
   </si>
   <si>
-    <t xml:space="preserve">Forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hammer knude ruten nær sandvig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea cliffs and shingle or stony beaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassland formations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural dry grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogs, mires and fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcareous fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkaline fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grasslands (non-habitat type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heath and scrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molinia meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.21792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.55345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beech forests Luzulo-Fagetum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD10692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skallingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic salt meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blåvand hug fyrtårn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland dunes grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD02343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2533</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD02346</t>
   </si>
   <si>
@@ -699,13 +702,13 @@
     <t xml:space="preserve">8.2944</t>
   </si>
   <si>
-    <t xml:space="preserve">9160</t>
+    <t xml:space="preserve">9939</t>
   </si>
   <si>
     <t xml:space="preserve">vrøgum, ballonparken</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak-hornbeam mixed forest</t>
+    <t xml:space="preserve">Birch-coniferous mix</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -1585,11 +1588,9 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
         <v>25</v>
@@ -1597,29 +1598,27 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +1628,9 @@
       <c r="K13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
         <v>25</v>
@@ -1637,25 +1638,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
@@ -1668,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
@@ -1677,25 +1678,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
@@ -1705,12 +1706,14 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
@@ -1745,13 +1748,13 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
@@ -1759,25 +1762,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
@@ -1787,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1801,25 +1804,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
@@ -1829,13 +1832,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
         <v>25</v>
@@ -1843,25 +1846,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
@@ -1871,13 +1874,13 @@
         <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
         <v>25</v>
@@ -1885,25 +1888,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
@@ -1913,13 +1916,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
@@ -1927,25 +1930,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -1955,13 +1958,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
         <v>25</v>
@@ -1969,25 +1972,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -1997,13 +2000,13 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
         <v>25</v>
@@ -2011,25 +2014,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>71</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
@@ -2039,39 +2042,35 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" t="s">
-        <v>74</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
         <v>103</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
@@ -2081,9 +2080,11 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
         <v>25</v>
@@ -2091,25 +2092,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
@@ -2119,31 +2120,33 @@
         <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
       <c r="N25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -2159,35 +2162,39 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" t="s">
+        <v>109</v>
+      </c>
       <c r="N26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
         <v>116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2197,35 +2204,39 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" t="s">
+        <v>119</v>
+      </c>
       <c r="N27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
@@ -2235,39 +2246,35 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" t="s">
-        <v>123</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
@@ -2279,7 +2286,9 @@
       <c r="K29" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
         <v>25</v>
@@ -2287,25 +2296,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>129</v>
-      </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2315,10 +2324,10 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
@@ -2327,25 +2336,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
@@ -2355,37 +2364,39 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="M31" t="s">
+        <v>135</v>
+      </c>
       <c r="N31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2395,7 +2406,7 @@
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2405,25 +2416,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2433,9 +2444,11 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
         <v>25</v>
@@ -2443,25 +2456,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2471,10 +2484,10 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
@@ -2483,25 +2496,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
@@ -2511,10 +2524,10 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
@@ -2523,25 +2536,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -2551,11 +2564,9 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" t="s">
-        <v>134</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>25</v>
@@ -2563,25 +2574,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -2591,35 +2602,39 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
       <c r="N37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
@@ -2629,39 +2644,35 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" t="s">
-        <v>74</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="N38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -2671,37 +2682,39 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="M39" t="s">
+        <v>166</v>
+      </c>
       <c r="N39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
@@ -2711,17 +2724,21 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" t="s">
+        <v>66</v>
+      </c>
       <c r="N40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -2730,16 +2747,16 @@
         <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -2749,13 +2766,13 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
@@ -2763,25 +2780,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -2791,13 +2808,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="M42" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="N42" t="s">
         <v>25</v>
@@ -2805,25 +2822,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -2833,13 +2850,13 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="M43" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
@@ -2847,7 +2864,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -2856,16 +2873,16 @@
         <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
@@ -2875,13 +2892,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -2889,25 +2906,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -2917,13 +2934,13 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N45" t="s">
         <v>25</v>
@@ -2931,25 +2948,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -2959,13 +2976,13 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="M46" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="N46" t="s">
         <v>25</v>
@@ -2973,25 +2990,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3001,13 +3018,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N47" t="s">
         <v>25</v>
@@ -3015,19 +3032,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3043,37 +3060,43 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="L48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" t="s">
+        <v>109</v>
+      </c>
       <c r="N48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
@@ -3081,64 +3104,86 @@
         <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>208</v>
+      </c>
       <c r="N49" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
       <c r="C50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H50" t="s">
+        <v>214</v>
+      </c>
       <c r="I50" t="s">
         <v>21</v>
       </c>
       <c r="J50" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="K50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L50" t="s">
+        <v>216</v>
+      </c>
+      <c r="M50" t="s">
+        <v>217</v>
+      </c>
       <c r="N50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
         <v>206</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="H51" t="s">
         <v>207</v>
-      </c>
-      <c r="D51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" t="s">
-        <v>209</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" t="s">
-        <v>211</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3153,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3161,28 +3206,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3191,13 +3236,13 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="N52" t="s">
         <v>25</v>
@@ -3205,28 +3250,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>207</v>
-      </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3235,59 +3280,15 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="N53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" t="s">
-        <v>229</v>
-      </c>
-      <c r="I54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" t="s">
-        <v>230</v>
-      </c>
-      <c r="N54" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3307,10 +3308,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -3318,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -3326,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -3334,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -3342,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -3350,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
@@ -3358,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -3366,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -3374,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
@@ -3382,7 +3383,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -3390,7 +3391,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12">
@@ -3398,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
@@ -3406,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14">
@@ -3414,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15">
@@ -3422,7 +3423,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">Forest (non-habitattype)</t>
   </si>
   <si>
-    <t xml:space="preserve">Coniferous forest (nåleskov)</t>
+    <t xml:space="preserve">Coniferous forest</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03688</t>
@@ -405,9 +405,6 @@
     <t xml:space="preserve">6000</t>
   </si>
   <si>
-    <t xml:space="preserve">Grasslands (non-habitat type)</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03699</t>
   </si>
   <si>
@@ -444,10 +441,7 @@
     <t xml:space="preserve">4000</t>
   </si>
   <si>
-    <t xml:space="preserve">Heath and scrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate heath</t>
+    <t xml:space="preserve">Temperate heath and scrub</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03702</t>
@@ -513,7 +507,7 @@
     <t xml:space="preserve">9990</t>
   </si>
   <si>
-    <t xml:space="preserve">Deciduous trees (løvtræer)</t>
+    <t xml:space="preserve">Deciduous trees</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03841</t>
@@ -538,9 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03877</t>
@@ -2326,9 +2317,7 @@
       <c r="K30" t="s">
         <v>64</v>
       </c>
-      <c r="L30" t="s">
-        <v>130</v>
-      </c>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
         <v>25</v>
@@ -2336,7 +2325,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -2345,16 +2334,16 @@
         <v>96</v>
       </c>
       <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
         <v>132</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
         <v>133</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>134</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
@@ -2370,7 +2359,7 @@
         <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N31" t="s">
         <v>25</v>
@@ -2378,7 +2367,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2387,10 +2376,10 @@
         <v>96</v>
       </c>
       <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
         <v>137</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -2416,7 +2405,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2425,16 +2414,16 @@
         <v>96</v>
       </c>
       <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
         <v>140</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>142</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2444,11 +2433,9 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" t="s">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
         <v>25</v>
@@ -2456,7 +2443,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2465,16 +2452,16 @@
         <v>96</v>
       </c>
       <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="E34" t="s">
-        <v>141</v>
-      </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2487,7 +2474,7 @@
         <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
@@ -2496,7 +2483,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2505,10 +2492,10 @@
         <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -2526,9 +2513,7 @@
       <c r="K35" t="s">
         <v>64</v>
       </c>
-      <c r="L35" t="s">
-        <v>130</v>
-      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
         <v>25</v>
@@ -2536,19 +2521,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>152</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -2574,19 +2559,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
         <v>155</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>157</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -2616,19 +2601,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
         <v>158</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>159</v>
-      </c>
-      <c r="D38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -2654,25 +2639,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>165</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -2688,7 +2673,7 @@
         <v>108</v>
       </c>
       <c r="M39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N39" t="s">
         <v>25</v>
@@ -2696,19 +2681,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
         <v>167</v>
       </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>168</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" t="s">
-        <v>170</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2738,25 +2723,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
         <v>171</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
         <v>172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>174</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -2766,33 +2751,29 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" t="s">
-        <v>144</v>
-      </c>
-      <c r="M41" t="s">
-        <v>175</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="N41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" t="s">
         <v>152</v>
-      </c>
-      <c r="D42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -2822,25 +2803,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
         <v>178</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
         <v>179</v>
-      </c>
-      <c r="D43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>182</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -2853,10 +2834,10 @@
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
@@ -2864,25 +2845,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
@@ -2892,39 +2873,35 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" t="s">
-        <v>144</v>
-      </c>
-      <c r="M44" t="s">
-        <v>175</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
       <c r="N44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
         <v>187</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
-      </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -2940,7 +2917,7 @@
         <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N45" t="s">
         <v>25</v>
@@ -2948,25 +2925,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
         <v>191</v>
       </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
-      </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -2976,39 +2953,35 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" t="s">
-        <v>144</v>
-      </c>
-      <c r="M46" t="s">
-        <v>175</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
       <c r="N46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
         <v>195</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" t="s">
-        <v>198</v>
-      </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3024,7 +2997,7 @@
         <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N47" t="s">
         <v>25</v>
@@ -3032,19 +3005,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3074,28 +3047,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" t="s">
         <v>202</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
         <v>203</v>
       </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>204</v>
-      </c>
-      <c r="E49" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>206</v>
-      </c>
-      <c r="H49" t="s">
-        <v>207</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3110,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N49" t="s">
         <v>25</v>
@@ -3118,43 +3091,43 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" t="s">
         <v>209</v>
       </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
         <v>210</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
         <v>212</v>
       </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="L50" t="s">
         <v>213</v>
       </c>
-      <c r="H50" t="s">
+      <c r="M50" t="s">
         <v>214</v>
-      </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
-        <v>215</v>
-      </c>
-      <c r="L50" t="s">
-        <v>216</v>
-      </c>
-      <c r="M50" t="s">
-        <v>217</v>
       </c>
       <c r="N50" t="s">
         <v>25</v>
@@ -3162,28 +3135,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
         <v>203</v>
       </c>
-      <c r="D51" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>206</v>
-      </c>
       <c r="H51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3198,7 +3171,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3206,19 +3179,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
         <v>221</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" t="s">
-        <v>223</v>
-      </c>
-      <c r="E52" t="s">
-        <v>224</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3227,7 +3200,7 @@
         <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3250,28 +3223,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
         <v>226</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>227</v>
-      </c>
-      <c r="E53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>229</v>
-      </c>
-      <c r="H53" t="s">
-        <v>230</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3286,7 +3259,7 @@
         <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N53" t="s">
         <v>25</v>
@@ -3308,10 +3281,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -3319,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -3327,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -3335,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -3343,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
@@ -3351,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -3359,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -3367,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -3375,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -3383,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11">
@@ -3391,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -3399,7 +3372,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -3407,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -3415,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -3423,7 +3396,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -531,7 +531,13 @@
     <t xml:space="preserve">8.7119</t>
   </si>
   <si>
-    <t xml:space="preserve">4030</t>
+    <t xml:space="preserve">4130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03877</t>
@@ -2753,15 +2759,19 @@
       <c r="K41" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="L41" t="s">
+        <v>173</v>
+      </c>
+      <c r="M41" t="s">
+        <v>174</v>
+      </c>
       <c r="N41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -2770,7 +2780,7 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
         <v>152</v>
@@ -2803,25 +2813,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -2837,7 +2847,7 @@
         <v>145</v>
       </c>
       <c r="M43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
@@ -2845,19 +2855,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -2875,27 +2885,31 @@
       <c r="K44" t="s">
         <v>142</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="L44" t="s">
+        <v>173</v>
+      </c>
+      <c r="M44" t="s">
+        <v>174</v>
+      </c>
       <c r="N44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -2925,19 +2939,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -2955,27 +2969,31 @@
       <c r="K46" t="s">
         <v>142</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="L46" t="s">
+        <v>173</v>
+      </c>
+      <c r="M46" t="s">
+        <v>174</v>
+      </c>
       <c r="N46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3005,7 +3023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3014,10 +3032,10 @@
         <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3047,28 +3065,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3083,7 +3101,7 @@
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s">
         <v>25</v>
@@ -3091,28 +3109,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -3121,13 +3139,13 @@
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N50" t="s">
         <v>25</v>
@@ -3135,28 +3153,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3171,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3179,19 +3197,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3200,7 +3218,7 @@
         <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3223,28 +3241,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3259,7 +3277,7 @@
         <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N53" t="s">
         <v>25</v>
@@ -3281,10 +3299,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
@@ -3292,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -3300,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -3308,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -3316,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -3324,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -3332,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -3340,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -3348,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -3356,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
@@ -3364,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -3372,7 +3390,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
@@ -3380,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
@@ -3388,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
@@ -3396,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -462,6 +462,18 @@
     <t xml:space="preserve">11.0279</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7116</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03766</t>
   </si>
   <si>
@@ -474,6 +486,15 @@
     <t xml:space="preserve">10.0114</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5999</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03798</t>
   </si>
   <si>
@@ -495,6 +516,30 @@
     <t xml:space="preserve">9.7483</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8912</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03834</t>
   </si>
   <si>
@@ -513,15 +558,42 @@
     <t xml:space="preserve">MFD03841</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1172</t>
   </si>
   <si>
     <t xml:space="preserve">9.5988</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4696</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03868</t>
   </si>
   <si>
@@ -540,6 +612,15 @@
     <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8317</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03877</t>
   </si>
   <si>
@@ -564,6 +645,15 @@
     <t xml:space="preserve">Molinia meadows</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0138</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03910</t>
   </si>
   <si>
@@ -616,6 +706,24 @@
   </si>
   <si>
     <t xml:space="preserve">10.0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.574</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02324</t>
@@ -2545,7 +2653,7 @@
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -2555,10 +2663,14 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" t="s">
+        <v>66</v>
+      </c>
       <c r="N36" t="s">
         <v>25</v>
       </c>
@@ -2571,19 +2683,19 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -2593,27 +2705,23 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" t="s">
-        <v>66</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="N37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -2625,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
@@ -2635,10 +2743,14 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" t="s">
+        <v>66</v>
+      </c>
       <c r="N38" t="s">
         <v>25</v>
       </c>
@@ -2651,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>161</v>
@@ -2663,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -2673,13 +2785,13 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="N39" t="s">
         <v>25</v>
@@ -2687,25 +2799,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
         <v>165</v>
       </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
-      </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
@@ -2715,39 +2827,35 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" t="s">
-        <v>66</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="N40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>170</v>
       </c>
-      <c r="E41" t="s">
-        <v>171</v>
-      </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -2757,13 +2865,13 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
@@ -2771,25 +2879,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -2799,13 +2907,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="N42" t="s">
         <v>25</v>
@@ -2813,25 +2921,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
         <v>177</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
         <v>178</v>
-      </c>
-      <c r="D43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>181</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -2841,13 +2949,13 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
@@ -2855,25 +2963,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
@@ -2883,13 +2991,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -2897,25 +3005,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>189</v>
-      </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -2925,13 +3033,13 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="N45" t="s">
         <v>25</v>
@@ -2939,25 +3047,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -2967,13 +3075,13 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="M46" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="N46" t="s">
         <v>25</v>
@@ -2981,25 +3089,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3009,13 +3117,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="N47" t="s">
         <v>25</v>
@@ -3023,7 +3131,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3032,16 +3140,16 @@
         <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3051,13 +3159,13 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="L48" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="N48" t="s">
         <v>25</v>
@@ -3065,29 +3173,27 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
         <v>201</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" t="s">
-        <v>204</v>
-      </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" t="s">
-        <v>206</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H49" s="2"/>
       <c r="I49" t="s">
         <v>21</v>
       </c>
@@ -3095,13 +3201,13 @@
         <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M49" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="N49" t="s">
         <v>25</v>
@@ -3109,29 +3215,27 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H50" t="s">
-        <v>213</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H50" s="2"/>
       <c r="I50" t="s">
         <v>21</v>
       </c>
@@ -3139,13 +3243,13 @@
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="L50" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="M50" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="N50" t="s">
         <v>25</v>
@@ -3153,29 +3257,27 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" t="s">
-        <v>206</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H51" s="2"/>
       <c r="I51" t="s">
         <v>21</v>
       </c>
@@ -3183,13 +3285,13 @@
         <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="M51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -3197,29 +3299,27 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" t="s">
-        <v>224</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H52" s="2"/>
       <c r="I52" t="s">
         <v>21</v>
       </c>
@@ -3227,13 +3327,13 @@
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M52" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="N52" t="s">
         <v>25</v>
@@ -3241,45 +3341,515 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>142</v>
+      </c>
+      <c r="L53" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
+        <v>108</v>
+      </c>
+      <c r="M54" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>142</v>
+      </c>
+      <c r="L55" t="s">
+        <v>197</v>
+      </c>
+      <c r="M55" t="s">
+        <v>198</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
         <v>225</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>226</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E56" t="s">
         <v>227</v>
       </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L56" t="s">
+        <v>108</v>
+      </c>
+      <c r="M56" t="s">
+        <v>179</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>228</v>
       </c>
-      <c r="H53" t="s">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
         <v>229</v>
       </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="E57" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
         <v>100</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L57" t="s">
         <v>108</v>
       </c>
-      <c r="M53" t="s">
-        <v>230</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="M57" t="s">
+        <v>109</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>241</v>
+      </c>
+      <c r="H60" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>243</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" t="s">
+        <v>249</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>250</v>
+      </c>
+      <c r="L61" t="s">
+        <v>251</v>
+      </c>
+      <c r="M61" t="s">
+        <v>252</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" t="s">
+        <v>255</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" t="s">
+        <v>260</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s">
+        <v>108</v>
+      </c>
+      <c r="M63" t="s">
+        <v>109</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>265</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>100</v>
+      </c>
+      <c r="L64" t="s">
+        <v>108</v>
+      </c>
+      <c r="M64" t="s">
+        <v>266</v>
+      </c>
+      <c r="N64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3299,10 +3869,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -3310,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -3318,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -3326,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
@@ -3334,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
@@ -3342,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7">
@@ -3350,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
@@ -3358,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
@@ -3366,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -3374,7 +3944,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11">
@@ -3382,7 +3952,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -3390,7 +3960,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13">
@@ -3398,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14">
@@ -3406,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
@@ -3414,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
